--- a/362-rc---maj-des-capability-statements--lot-1b/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/362-rc---maj-des-capability-statements--lot-1b/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T06:40:04+00:00</t>
+    <t>2025-09-25T07:29:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/362-rc---maj-des-capability-statements--lot-1b/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/362-rc---maj-des-capability-statements--lot-1b/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6582" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7095" uniqueCount="847">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T07:29:00+00:00</t>
+    <t>2025-10-20T12:22:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>Purpose</t>
   </si>
   <si>
-    <t>&gt; **Note** : Le profil TDDUI ne peut pas hériter de FR Core Encounter à cause du type d'évènement qui est restreint à 1. Cependant, ce profil suit la plupart des règles de FR Core Encounter via un RuleSet.</t>
+    <t>&gt; **Note** : Le profil TDDUIEncounterEvenement n'hérite pas du profil FRCoreEncounterProfile à cause de l'interdiction de véhiculer plusieurs types d'évènements. Cependant, le profil TDDUIEncounterEvenement suit les contraintes du profil FRCoreEncounterProfile excepté la contrainte sur la cardinalité de l'élément type (0..1).</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -237,7 +237,7 @@
     <t>Constraint(s)</t>
   </si>
   <si>
-    <t>Mapping: Évènement</t>
+    <t>Mapping: Modèle de contenu DUI</t>
   </si>
   <si>
     <t>Mapping: Workflow Pattern</t>
@@ -276,7 +276,11 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}MatDetailOnlyIfTypeOrg206:Le slice TDDUIMaterialDetail est utilisé uniquement lorsque le slice TDDUIRessourceType prend la valeur ORG-206. {(Encounter.extension.where(url='https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-ressources-used').extension.where(url='TDDUIMaterialDetail').exists())
+    implies(Encounter.extension.where(url='https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-ressources-used').extension.where(url='TDDUIRessourceType').exists()
+    and(Encounter.extension.where(url='https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-ressources-used').extension.where(url='TDDUIRessourceType').value.coding.code='ORG-206'))}FacilityOnlyIfTypeOrg207:Le slice TDDUIFacilityResource est utilisé uniquement lorsque le slice TDDUIRessourceType prend la valeur ORG-207. {(Encounter.extension.where(url='https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-ressources-used').extension.where(url='TDDUIFacilityResource').exists())
+    implies(Encounter.extension.where(url='https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-ressources-used').extension.where(url='TDDUIRessourceType').exists()
+    and(Encounter.extension.where(url='https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-ressources-used').extension.where(url='TDDUIRessourceType').value.coding.code='ORG-207'))}</t>
   </si>
   <si>
     <t>Événement</t>
@@ -423,7 +427,7 @@
     <t>Meta.lastUpdated</t>
   </si>
   <si>
-    <t>dateModificationEvenement</t>
+    <t>dateModificationEvenement, Statut.dateStatut</t>
   </si>
   <si>
     <t>Encounter.meta.source</t>
@@ -657,6 +661,9 @@
     <t>Ressources utilisées lors de l’évènement.</t>
   </si>
   <si>
+    <t>Ressources utilisées lors de l’évènement (ex : chambre, matériel médical, véhicule).</t>
+  </si>
+  <si>
     <t>RessourceUtilisee</t>
   </si>
   <si>
@@ -742,10 +749,6 @@
     <t>TDDUIMaterialDetail</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}MatDetailOnlyIfTypeOrg206:TDDUIMaterialDetail ne doit être utilisé que si TDDUIRessourceType vaut ORG-206 ou n'est pas renseigné. {(extension('TDDUIMaterialDetail').exists() = (extension('TDDUIRessourceType').empty() or extension('TDDUIRessourceType').value.coding.code = 'ORG-206'))}</t>
-  </si>
-  <si>
     <t>detailTypeRessourceUtilisee</t>
   </si>
   <si>
@@ -768,10 +771,6 @@
   </si>
   <si>
     <t>TDDUIFacilityResource</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}FacilityOnlyIfTypeOrg207:TDDUIFacilityResource ne doit être utilisé que si TDDUIRessourceType vaut ORG-207 ou n'est pas renseigné. {(extension('TDDUIFacilityResource').exists() = (extension('TDDUIRessourceType').empty() or extension('TDDUIRessourceType').value.coding.code = 'ORG-207'))}</t>
   </si>
   <si>
     <t>Encounter.extension:TDDUIRessourcesUsed.extension:TDDUIFacilityResource.id</t>
@@ -837,7 +836,11 @@
     <t>Commentaires sur le déroulé de l'évènement.</t>
   </si>
   <si>
-    <t>Commentaire relatif au séjour et aux évènements.</t>
+    <t xml:space="preserve">
+- **Séjour** : commentaire relatif au séjour.
+- **Événement** : commentaires sur le déroulé de l’évènement.
+- **Évaluation** : commentaire libre sur le contenu ou le résultat de l’évaluation.
+- **Champ évalué** : commentaire spécifique à un item ou sous-item évalué.</t>
   </si>
   <si>
     <t>commentaireEvenement</t>
@@ -872,6 +875,9 @@
     <t>Pièces jointes liées à l’événement.</t>
   </si>
   <si>
+    <t>Pièces jointes liées à l’événement et à l'évaluation. L'extension référence le profil PDSm_SimplifiedPublish.</t>
+  </si>
+  <si>
     <t>pieceJointeEvenement</t>
   </si>
   <si>
@@ -962,7 +968,7 @@
 </t>
   </si>
   <si>
-    <t>Identifier(s) by which this encounter is known | identifiant de la rencontre</t>
+    <t>Identifiant de l'évènement</t>
   </si>
   <si>
     <t>Identifier(s) by which this encounter is known.Cet élément est multiévalué (pour ne pas bloquer les implémentations, car il arrive sur le terrain qu'il y ait plusieurs id pour une même admission, mais cette situation est considérée comme une anomalie)</t>
@@ -1200,7 +1206,7 @@
     <t>Motif associé au statut de non-réalisation de l’évènement.</t>
   </si>
   <si>
-    <t>statut.motifNonRealisation</t>
+    <t>Statut.motifNonRealisation</t>
   </si>
   <si>
     <t>Encounter.status.value</t>
@@ -1752,7 +1758,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins|Group)
 </t>
   </si>
   <si>
@@ -1834,6 +1840,10 @@
     <t>The list of people responsible for providing the service.</t>
   </si>
   <si>
+    <t xml:space="preserve">pattern:type}
+</t>
+  </si>
+  <si>
     <t>Event.performer</t>
   </si>
   <si>
@@ -1865,9 +1875,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/encounter-participant-type|4.0.1</t>
-  </si>
-  <si>
-    <t>statut.auteur</t>
   </si>
   <si>
     <t>Event.performer.function</t>
@@ -1907,19 +1914,93 @@
     <t>Persons involved in the encounter other than the patient.</t>
   </si>
   <si>
+    <t>Event.performer.actor</t>
+  </si>
+  <si>
+    <t>.role</t>
+  </si>
+  <si>
+    <t>FiveWs.who</t>
+  </si>
+  <si>
+    <t>ROL-4</t>
+  </si>
+  <si>
+    <t>Encounter.participant:auteurStatut</t>
+  </si>
+  <si>
+    <t>auteurStatut</t>
+  </si>
+  <si>
+    <t>Professionnel ayant effectué la dernière modification du statut associé à la ressource.</t>
+  </si>
+  <si>
+    <t>Statut.auteur</t>
+  </si>
+  <si>
+    <t>Encounter.participant:auteurStatut.id</t>
+  </si>
+  <si>
+    <t>Encounter.participant:auteurStatut.extension</t>
+  </si>
+  <si>
+    <t>Encounter.participant:auteurStatut.modifierExtension</t>
+  </si>
+  <si>
+    <t>Encounter.participant:auteurStatut.type</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/tddui/CodeSystem/TDDUIEncounterParticipant"/&gt;
+    &lt;code value="AUT"/&gt;
+    &lt;display value="Auteur du statut de la ressource"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>Encounter.participant:auteurStatut.period</t>
+  </si>
+  <si>
+    <t>Encounter.participant:auteurStatut.individual</t>
+  </si>
+  <si>
+    <t>Encounter.participant:professionnel</t>
+  </si>
+  <si>
+    <t>professionnel</t>
+  </si>
+  <si>
+    <t>List of participants involved in the encounter</t>
+  </si>
+  <si>
     <t>Professionnel</t>
   </si>
   <si>
-    <t>Event.performer.actor</t>
-  </si>
-  <si>
-    <t>.role</t>
-  </si>
-  <si>
-    <t>FiveWs.who</t>
-  </si>
-  <si>
-    <t>ROL-4</t>
+    <t>Encounter.participant:professionnel.id</t>
+  </si>
+  <si>
+    <t>Encounter.participant:professionnel.extension</t>
+  </si>
+  <si>
+    <t>Encounter.participant:professionnel.modifierExtension</t>
+  </si>
+  <si>
+    <t>Encounter.participant:professionnel.type</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/v3-ParticipationType"/&gt;
+    &lt;code value="PART"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>Encounter.participant:professionnel.period</t>
+  </si>
+  <si>
+    <t>Encounter.participant:professionnel.individual</t>
   </si>
   <si>
     <t>Encounter.appointment</t>
@@ -2870,7 +2951,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO178"/>
+  <dimension ref="A1:AO192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2914,7 +2995,7 @@
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="23.12890625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="37.63671875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="87.9765625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
@@ -5061,7 +5142,7 @@
         <v>205</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -5127,7 +5208,7 @@
         <v>120</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>82</v>
@@ -5144,10 +5225,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -5259,10 +5340,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -5376,13 +5457,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="B22" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="C22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>82</v>
@@ -5476,7 +5557,7 @@
         <v>120</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>82</v>
@@ -5493,10 +5574,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5608,10 +5689,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5723,10 +5804,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5752,13 +5833,13 @@
         <v>134</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5766,7 +5847,7 @@
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="S25" t="s" s="2">
         <v>82</v>
@@ -5808,7 +5889,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>91</v>
@@ -5840,10 +5921,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5866,13 +5947,13 @@
         <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5899,11 +5980,11 @@
         <v>82</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>82</v>
@@ -5921,7 +6002,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5953,13 +6034,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>82</v>
@@ -6050,7 +6131,7 @@
         <v>82</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>234</v>
+        <v>120</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>235</v>
@@ -6073,7 +6154,7 @@
         <v>236</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -6188,7 +6269,7 @@
         <v>237</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -6303,7 +6384,7 @@
         <v>238</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -6329,13 +6410,13 @@
         <v>134</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -6343,7 +6424,7 @@
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>82</v>
@@ -6385,7 +6466,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>91</v>
@@ -6420,7 +6501,7 @@
         <v>239</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6443,13 +6524,13 @@
         <v>82</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -6476,7 +6557,7 @@
         <v>82</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
@@ -6498,7 +6579,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -6533,7 +6614,7 @@
         <v>241</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>242</v>
@@ -6627,7 +6708,7 @@
         <v>82</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>243</v>
+        <v>120</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>235</v>
@@ -6647,10 +6728,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6762,10 +6843,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6877,10 +6958,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6906,13 +6987,13 @@
         <v>134</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6962,7 +7043,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>91</v>
@@ -6994,10 +7075,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -7020,13 +7101,13 @@
         <v>82</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -7053,11 +7134,11 @@
         <v>82</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Y36" s="2"/>
       <c r="Z36" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>82</v>
@@ -7075,7 +7156,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -7107,10 +7188,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="B37" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -7136,13 +7217,13 @@
         <v>134</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -7150,7 +7231,7 @@
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>82</v>
@@ -7192,7 +7273,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>91</v>
@@ -7224,10 +7305,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="B38" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -7250,13 +7331,13 @@
         <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -7307,7 +7388,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -7339,13 +7420,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>82</v>
@@ -7367,13 +7448,13 @@
         <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="L39" t="s" s="2">
-        <v>258</v>
-      </c>
       <c r="M39" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -7439,7 +7520,7 @@
         <v>120</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>82</v>
@@ -7456,13 +7537,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>82</v>
@@ -7484,13 +7565,13 @@
         <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -7556,7 +7637,7 @@
         <v>120</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>82</v>
@@ -7573,13 +7654,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>82</v>
@@ -7601,13 +7682,13 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="L41" t="s" s="2">
-        <v>269</v>
-      </c>
       <c r="M41" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7673,7 +7754,7 @@
         <v>120</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>82</v>
@@ -7690,13 +7771,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>82</v>
@@ -7718,10 +7799,10 @@
         <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>274</v>
@@ -8804,7 +8885,7 @@
         <v>82</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Y51" t="s" s="2">
         <v>317</v>
@@ -8886,7 +8967,7 @@
         <v>92</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L52" t="s" s="2">
         <v>322</v>
@@ -9506,7 +9587,7 @@
         <v>82</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Y57" t="s" s="2">
         <v>365</v>
@@ -10549,7 +10630,7 @@
         <v>82</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Y66" t="s" s="2">
         <v>365</v>
@@ -12378,7 +12459,7 @@
         <v>92</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L82" t="s" s="2">
         <v>463</v>
@@ -12493,7 +12574,7 @@
         <v>92</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L83" t="s" s="2">
         <v>474</v>
@@ -13464,7 +13545,7 @@
         <v>82</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Y91" s="2"/>
       <c r="Z91" t="s" s="2">
@@ -13901,7 +13982,7 @@
         <v>92</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L95" t="s" s="2">
         <v>517</v>
@@ -14872,7 +14953,7 @@
         <v>82</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Y103" s="2"/>
       <c r="Z103" t="s" s="2">
@@ -15309,7 +15390,7 @@
         <v>92</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L107" t="s" s="2">
         <v>533</v>
@@ -16717,7 +16798,7 @@
         <v>92</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L119" t="s" s="2">
         <v>549</v>
@@ -16832,7 +16913,7 @@
         <v>82</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L120" t="s" s="2">
         <v>555</v>
@@ -17339,16 +17420,14 @@
         <v>82</v>
       </c>
       <c r="AB124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC124" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>589</v>
+      </c>
+      <c r="AC124" s="2"/>
       <c r="AD124" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>586</v>
@@ -17369,24 +17448,24 @@
         <v>82</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AN124" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO124" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17498,10 +17577,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17615,10 +17694,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17734,10 +17813,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17760,16 +17839,16 @@
         <v>92</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="O128" s="2"/>
       <c r="P128" t="s" s="2">
@@ -17798,10 +17877,10 @@
         <v>150</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="Z128" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AA128" t="s" s="2">
         <v>82</v>
@@ -17819,7 +17898,7 @@
         <v>82</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
@@ -17834,7 +17913,7 @@
         <v>103</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>600</v>
+        <v>82</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>601</v>
@@ -18064,29 +18143,31 @@
         <v>103</v>
       </c>
       <c r="AK130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL130" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="AL130" t="s" s="2">
+      <c r="AM130" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="AM130" t="s" s="2">
+      <c r="AN130" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="AN130" t="s" s="2">
+      <c r="AO130" t="s" s="2">
         <v>616</v>
-      </c>
-      <c r="AO130" t="s" s="2">
-        <v>617</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="B131" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="C131" t="s" s="2">
         <v>618</v>
       </c>
-      <c r="B131" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
         <v>82</v>
       </c>
@@ -18095,7 +18176,7 @@
         <v>80</v>
       </c>
       <c r="G131" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H131" t="s" s="2">
         <v>82</v>
@@ -18107,13 +18188,13 @@
         <v>92</v>
       </c>
       <c r="K131" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L131" t="s" s="2">
         <v>619</v>
       </c>
-      <c r="L131" t="s" s="2">
-        <v>620</v>
-      </c>
       <c r="M131" t="s" s="2">
-        <v>621</v>
+        <v>588</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -18164,7 +18245,7 @@
         <v>82</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>618</v>
+        <v>586</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>80</v>
@@ -18179,27 +18260,27 @@
         <v>103</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>82</v>
+        <v>620</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>622</v>
+        <v>591</v>
       </c>
       <c r="AN131" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO131" t="s" s="2">
-        <v>623</v>
+        <v>592</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>624</v>
+        <v>593</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18207,7 +18288,7 @@
       </c>
       <c r="E132" s="2"/>
       <c r="F132" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>91</v>
@@ -18222,17 +18303,15 @@
         <v>82</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>347</v>
+        <v>105</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>625</v>
+        <v>106</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>627</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N132" s="2"/>
       <c r="O132" s="2"/>
       <c r="P132" t="s" s="2">
         <v>82</v>
@@ -18281,7 +18360,7 @@
         <v>82</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>624</v>
+        <v>108</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>80</v>
@@ -18293,41 +18372,41 @@
         <v>82</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="AK132" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>628</v>
+        <v>82</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>629</v>
+        <v>109</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>630</v>
+        <v>82</v>
       </c>
       <c r="AO132" t="s" s="2">
-        <v>631</v>
+        <v>82</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>632</v>
+        <v>594</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G133" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H133" t="s" s="2">
         <v>82</v>
@@ -18339,15 +18418,17 @@
         <v>82</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N133" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="N133" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="O133" s="2"/>
       <c r="P133" t="s" s="2">
         <v>82</v>
@@ -18396,19 +18477,19 @@
         <v>82</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH133" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI133" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AK133" t="s" s="2">
         <v>82</v>
@@ -18428,14 +18509,14 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>633</v>
+        <v>595</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
-        <v>111</v>
+        <v>393</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" t="s" s="2">
@@ -18448,24 +18529,26 @@
         <v>82</v>
       </c>
       <c r="I134" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K134" t="s" s="2">
         <v>112</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>113</v>
+        <v>394</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>114</v>
+        <v>395</v>
       </c>
       <c r="N134" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="O134" s="2"/>
+      <c r="O134" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="P134" t="s" s="2">
         <v>82</v>
       </c>
@@ -18501,19 +18584,19 @@
         <v>82</v>
       </c>
       <c r="AB134" t="s" s="2">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="AC134" t="s" s="2">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="AD134" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>119</v>
+        <v>396</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>80</v>
@@ -18534,7 +18617,7 @@
         <v>82</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="AN134" t="s" s="2">
         <v>82</v>
@@ -18545,10 +18628,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>634</v>
+        <v>596</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18571,16 +18654,16 @@
         <v>92</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>635</v>
+        <v>227</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>636</v>
+        <v>597</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>637</v>
+        <v>598</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>638</v>
+        <v>599</v>
       </c>
       <c r="O135" s="2"/>
       <c r="P135" t="s" s="2">
@@ -18591,7 +18674,7 @@
         <v>82</v>
       </c>
       <c r="S135" t="s" s="2">
-        <v>82</v>
+        <v>625</v>
       </c>
       <c r="T135" t="s" s="2">
         <v>82</v>
@@ -18606,13 +18689,13 @@
         <v>82</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>82</v>
+        <v>598</v>
       </c>
       <c r="Z135" t="s" s="2">
-        <v>82</v>
+        <v>600</v>
       </c>
       <c r="AA135" t="s" s="2">
         <v>82</v>
@@ -18630,42 +18713,42 @@
         <v>82</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>639</v>
+        <v>596</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH135" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>640</v>
+        <v>82</v>
       </c>
       <c r="AJ135" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>641</v>
+        <v>82</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>82</v>
+        <v>601</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>642</v>
+        <v>602</v>
       </c>
       <c r="AN135" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO135" t="s" s="2">
-        <v>643</v>
+        <v>603</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>644</v>
+        <v>626</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>644</v>
+        <v>604</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -18673,7 +18756,7 @@
       </c>
       <c r="E136" s="2"/>
       <c r="F136" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G136" t="s" s="2">
         <v>91</v>
@@ -18685,27 +18768,23 @@
         <v>82</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>635</v>
+        <v>347</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>645</v>
+        <v>605</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>647</v>
-      </c>
+        <v>606</v>
+      </c>
+      <c r="N136" s="2"/>
       <c r="O136" s="2"/>
       <c r="P136" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q136" t="s" s="2">
-        <v>648</v>
-      </c>
+      <c r="Q136" s="2"/>
       <c r="R136" t="s" s="2">
         <v>82</v>
       </c>
@@ -18749,7 +18828,7 @@
         <v>82</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>649</v>
+        <v>604</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>80</v>
@@ -18758,33 +18837,33 @@
         <v>91</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>640</v>
+        <v>82</v>
       </c>
       <c r="AJ136" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>650</v>
+        <v>82</v>
       </c>
       <c r="AL136" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>651</v>
+        <v>607</v>
       </c>
       <c r="AN136" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO136" t="s" s="2">
-        <v>652</v>
+        <v>608</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>653</v>
+        <v>627</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>653</v>
+        <v>609</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -18804,20 +18883,18 @@
         <v>82</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>654</v>
+        <v>610</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>655</v>
+        <v>611</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="N137" t="s" s="2">
-        <v>657</v>
-      </c>
+        <v>612</v>
+      </c>
+      <c r="N137" s="2"/>
       <c r="O137" s="2"/>
       <c r="P137" t="s" s="2">
         <v>82</v>
@@ -18866,7 +18943,7 @@
         <v>82</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>653</v>
+        <v>609</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
@@ -18884,35 +18961,37 @@
         <v>82</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>628</v>
+        <v>613</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>658</v>
+        <v>614</v>
       </c>
       <c r="AN137" t="s" s="2">
-        <v>82</v>
+        <v>615</v>
       </c>
       <c r="AO137" t="s" s="2">
-        <v>659</v>
+        <v>616</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>660</v>
+        <v>628</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="C138" s="2"/>
+        <v>586</v>
+      </c>
+      <c r="C138" t="s" s="2">
+        <v>629</v>
+      </c>
       <c r="D138" t="s" s="2">
-        <v>661</v>
+        <v>82</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G138" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H138" t="s" s="2">
         <v>82</v>
@@ -18924,17 +19003,15 @@
         <v>92</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>226</v>
+        <v>386</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>662</v>
+        <v>630</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="N138" t="s" s="2">
-        <v>664</v>
-      </c>
+        <v>588</v>
+      </c>
+      <c r="N138" s="2"/>
       <c r="O138" s="2"/>
       <c r="P138" t="s" s="2">
         <v>82</v>
@@ -18959,13 +19036,13 @@
         <v>82</v>
       </c>
       <c r="X138" t="s" s="2">
-        <v>172</v>
+        <v>82</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>665</v>
+        <v>82</v>
       </c>
       <c r="Z138" t="s" s="2">
-        <v>666</v>
+        <v>82</v>
       </c>
       <c r="AA138" t="s" s="2">
         <v>82</v>
@@ -18983,7 +19060,7 @@
         <v>82</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>660</v>
+        <v>586</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>80</v>
@@ -18998,38 +19075,38 @@
         <v>103</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>82</v>
+        <v>631</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>667</v>
+        <v>590</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>668</v>
+        <v>591</v>
       </c>
       <c r="AN138" t="s" s="2">
-        <v>669</v>
+        <v>82</v>
       </c>
       <c r="AO138" t="s" s="2">
-        <v>670</v>
+        <v>592</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>671</v>
+        <v>632</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>671</v>
+        <v>593</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
-        <v>661</v>
+        <v>82</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G139" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H139" t="s" s="2">
         <v>82</v>
@@ -19038,20 +19115,18 @@
         <v>82</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>672</v>
+        <v>105</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>673</v>
+        <v>106</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>664</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N139" s="2"/>
       <c r="O139" s="2"/>
       <c r="P139" t="s" s="2">
         <v>82</v>
@@ -19100,46 +19175,46 @@
         <v>82</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>671</v>
+        <v>108</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH139" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI139" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="AK139" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>667</v>
+        <v>82</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>668</v>
+        <v>109</v>
       </c>
       <c r="AN139" t="s" s="2">
-        <v>669</v>
+        <v>82</v>
       </c>
       <c r="AO139" t="s" s="2">
-        <v>670</v>
+        <v>82</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>674</v>
+        <v>633</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>674</v>
+        <v>594</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" t="s" s="2">
@@ -19155,18 +19230,20 @@
         <v>82</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>386</v>
+        <v>112</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>675</v>
+        <v>113</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="N140" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="N140" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="O140" s="2"/>
       <c r="P140" t="s" s="2">
         <v>82</v>
@@ -19215,7 +19292,7 @@
         <v>82</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>674</v>
+        <v>119</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>80</v>
@@ -19227,7 +19304,7 @@
         <v>82</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>82</v>
@@ -19236,7 +19313,7 @@
         <v>82</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>677</v>
+        <v>109</v>
       </c>
       <c r="AN140" t="s" s="2">
         <v>82</v>
@@ -19247,42 +19324,46 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>678</v>
+        <v>634</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>678</v>
+        <v>595</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
-        <v>82</v>
+        <v>393</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G141" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H141" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I141" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>106</v>
+        <v>394</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N141" s="2"/>
-      <c r="O141" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="N141" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="O141" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="P141" t="s" s="2">
         <v>82</v>
       </c>
@@ -19330,19 +19411,19 @@
         <v>82</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>108</v>
+        <v>396</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH141" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI141" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AK141" t="s" s="2">
         <v>82</v>
@@ -19351,7 +19432,7 @@
         <v>82</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="AN141" t="s" s="2">
         <v>82</v>
@@ -19362,21 +19443,21 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>679</v>
+        <v>635</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>679</v>
+        <v>596</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G142" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H142" t="s" s="2">
         <v>82</v>
@@ -19385,19 +19466,19 @@
         <v>82</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>112</v>
+        <v>227</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>113</v>
+        <v>597</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>114</v>
+        <v>598</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>115</v>
+        <v>599</v>
       </c>
       <c r="O142" s="2"/>
       <c r="P142" t="s" s="2">
@@ -19408,7 +19489,7 @@
         <v>82</v>
       </c>
       <c r="S142" t="s" s="2">
-        <v>82</v>
+        <v>636</v>
       </c>
       <c r="T142" t="s" s="2">
         <v>82</v>
@@ -19423,13 +19504,13 @@
         <v>82</v>
       </c>
       <c r="X142" t="s" s="2">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>82</v>
+        <v>598</v>
       </c>
       <c r="Z142" t="s" s="2">
-        <v>82</v>
+        <v>600</v>
       </c>
       <c r="AA142" t="s" s="2">
         <v>82</v>
@@ -19447,7 +19528,7 @@
         <v>82</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>119</v>
+        <v>596</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>80</v>
@@ -19459,66 +19540,62 @@
         <v>82</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>82</v>
+        <v>601</v>
       </c>
       <c r="AM142" t="s" s="2">
-        <v>109</v>
+        <v>602</v>
       </c>
       <c r="AN142" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO142" t="s" s="2">
-        <v>82</v>
+        <v>603</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>680</v>
+        <v>637</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>680</v>
+        <v>604</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
-        <v>393</v>
+        <v>82</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G143" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H143" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I143" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>112</v>
+        <v>347</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>394</v>
+        <v>605</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N143" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="O143" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>606</v>
+      </c>
+      <c r="N143" s="2"/>
+      <c r="O143" s="2"/>
       <c r="P143" t="s" s="2">
         <v>82</v>
       </c>
@@ -19566,19 +19643,19 @@
         <v>82</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>396</v>
+        <v>604</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH143" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI143" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="AK143" t="s" s="2">
         <v>82</v>
@@ -19587,29 +19664,29 @@
         <v>82</v>
       </c>
       <c r="AM143" t="s" s="2">
-        <v>191</v>
+        <v>607</v>
       </c>
       <c r="AN143" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO143" t="s" s="2">
-        <v>82</v>
+        <v>608</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>681</v>
+        <v>638</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>681</v>
+        <v>609</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
-        <v>682</v>
+        <v>82</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G144" t="s" s="2">
         <v>91</v>
@@ -19624,17 +19701,15 @@
         <v>92</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>683</v>
+        <v>610</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>684</v>
+        <v>611</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="N144" t="s" s="2">
-        <v>664</v>
-      </c>
+        <v>612</v>
+      </c>
+      <c r="N144" s="2"/>
       <c r="O144" s="2"/>
       <c r="P144" t="s" s="2">
         <v>82</v>
@@ -19683,10 +19758,10 @@
         <v>82</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>681</v>
+        <v>609</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>91</v>
@@ -19701,24 +19776,24 @@
         <v>82</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>686</v>
+        <v>613</v>
       </c>
       <c r="AM144" t="s" s="2">
-        <v>687</v>
+        <v>614</v>
       </c>
       <c r="AN144" t="s" s="2">
-        <v>669</v>
+        <v>615</v>
       </c>
       <c r="AO144" t="s" s="2">
-        <v>688</v>
+        <v>616</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>689</v>
+        <v>639</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>689</v>
+        <v>639</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -19729,7 +19804,7 @@
         <v>80</v>
       </c>
       <c r="G145" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H145" t="s" s="2">
         <v>82</v>
@@ -19738,16 +19813,16 @@
         <v>82</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>226</v>
+        <v>640</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>690</v>
+        <v>641</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>691</v>
+        <v>642</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" s="2"/>
@@ -19774,13 +19849,13 @@
         <v>82</v>
       </c>
       <c r="X145" t="s" s="2">
-        <v>172</v>
+        <v>82</v>
       </c>
       <c r="Y145" t="s" s="2">
-        <v>692</v>
+        <v>82</v>
       </c>
       <c r="Z145" t="s" s="2">
-        <v>693</v>
+        <v>82</v>
       </c>
       <c r="AA145" t="s" s="2">
         <v>82</v>
@@ -19798,13 +19873,13 @@
         <v>82</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>689</v>
+        <v>639</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH145" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI145" t="s" s="2">
         <v>82</v>
@@ -19816,24 +19891,24 @@
         <v>82</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>82</v>
+        <v>584</v>
       </c>
       <c r="AM145" t="s" s="2">
-        <v>109</v>
+        <v>643</v>
       </c>
       <c r="AN145" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO145" t="s" s="2">
-        <v>82</v>
+        <v>644</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>694</v>
+        <v>645</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>694</v>
+        <v>645</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -19841,7 +19916,7 @@
       </c>
       <c r="E146" s="2"/>
       <c r="F146" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G146" t="s" s="2">
         <v>91</v>
@@ -19856,15 +19931,17 @@
         <v>82</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>695</v>
+        <v>347</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>696</v>
+        <v>646</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>697</v>
-      </c>
-      <c r="N146" s="2"/>
+        <v>647</v>
+      </c>
+      <c r="N146" t="s" s="2">
+        <v>648</v>
+      </c>
       <c r="O146" s="2"/>
       <c r="P146" t="s" s="2">
         <v>82</v>
@@ -19913,7 +19990,7 @@
         <v>82</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>694</v>
+        <v>645</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>80</v>
@@ -19931,24 +20008,24 @@
         <v>82</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>82</v>
+        <v>649</v>
       </c>
       <c r="AM146" t="s" s="2">
-        <v>698</v>
+        <v>650</v>
       </c>
       <c r="AN146" t="s" s="2">
-        <v>82</v>
+        <v>651</v>
       </c>
       <c r="AO146" t="s" s="2">
-        <v>82</v>
+        <v>652</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>699</v>
+        <v>653</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>699</v>
+        <v>653</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -19971,17 +20048,15 @@
         <v>82</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>700</v>
+        <v>105</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>701</v>
+        <v>106</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>702</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>703</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N147" s="2"/>
       <c r="O147" s="2"/>
       <c r="P147" t="s" s="2">
         <v>82</v>
@@ -20030,19 +20105,19 @@
         <v>82</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>699</v>
+        <v>108</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH147" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI147" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="AK147" t="s" s="2">
         <v>82</v>
@@ -20051,7 +20126,7 @@
         <v>82</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>704</v>
+        <v>109</v>
       </c>
       <c r="AN147" t="s" s="2">
         <v>82</v>
@@ -20062,21 +20137,21 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>705</v>
+        <v>654</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>705</v>
+        <v>654</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="E148" s="2"/>
       <c r="F148" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G148" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H148" t="s" s="2">
         <v>82</v>
@@ -20088,16 +20163,16 @@
         <v>82</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>386</v>
+        <v>112</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>706</v>
+        <v>113</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>707</v>
+        <v>114</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>708</v>
+        <v>115</v>
       </c>
       <c r="O148" s="2"/>
       <c r="P148" t="s" s="2">
@@ -20135,31 +20210,31 @@
         <v>82</v>
       </c>
       <c r="AB148" t="s" s="2">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="AC148" t="s" s="2">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="AD148" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>705</v>
+        <v>119</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH148" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI148" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ148" t="s" s="2">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="AK148" t="s" s="2">
         <v>82</v>
@@ -20168,7 +20243,7 @@
         <v>82</v>
       </c>
       <c r="AM148" t="s" s="2">
-        <v>709</v>
+        <v>109</v>
       </c>
       <c r="AN148" t="s" s="2">
         <v>82</v>
@@ -20179,10 +20254,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>710</v>
+        <v>655</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>710</v>
+        <v>655</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20190,7 +20265,7 @@
       </c>
       <c r="E149" s="2"/>
       <c r="F149" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G149" t="s" s="2">
         <v>91</v>
@@ -20202,18 +20277,20 @@
         <v>82</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>105</v>
+        <v>656</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>106</v>
+        <v>657</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N149" s="2"/>
+        <v>658</v>
+      </c>
+      <c r="N149" t="s" s="2">
+        <v>659</v>
+      </c>
       <c r="O149" s="2"/>
       <c r="P149" t="s" s="2">
         <v>82</v>
@@ -20262,7 +20339,7 @@
         <v>82</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>108</v>
+        <v>660</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>80</v>
@@ -20271,44 +20348,44 @@
         <v>91</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>82</v>
+        <v>661</v>
       </c>
       <c r="AJ149" t="s" s="2">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>82</v>
+        <v>662</v>
       </c>
       <c r="AL149" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM149" t="s" s="2">
-        <v>109</v>
+        <v>663</v>
       </c>
       <c r="AN149" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO149" t="s" s="2">
-        <v>82</v>
+        <v>664</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>711</v>
+        <v>665</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>711</v>
+        <v>665</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G150" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H150" t="s" s="2">
         <v>82</v>
@@ -20317,25 +20394,27 @@
         <v>82</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>112</v>
+        <v>656</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>113</v>
+        <v>666</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>114</v>
+        <v>667</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>115</v>
+        <v>668</v>
       </c>
       <c r="O150" s="2"/>
       <c r="P150" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q150" s="2"/>
+      <c r="Q150" t="s" s="2">
+        <v>669</v>
+      </c>
       <c r="R150" t="s" s="2">
         <v>82</v>
       </c>
@@ -20379,78 +20458,76 @@
         <v>82</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>119</v>
+        <v>670</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH150" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>82</v>
+        <v>661</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>82</v>
+        <v>671</v>
       </c>
       <c r="AL150" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>109</v>
+        <v>672</v>
       </c>
       <c r="AN150" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO150" t="s" s="2">
-        <v>82</v>
+        <v>673</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>712</v>
+        <v>674</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>712</v>
+        <v>674</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
-        <v>393</v>
+        <v>82</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G151" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H151" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I151" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>112</v>
+        <v>675</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>394</v>
+        <v>676</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>395</v>
+        <v>677</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="O151" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>678</v>
+      </c>
+      <c r="O151" s="2"/>
       <c r="P151" t="s" s="2">
         <v>82</v>
       </c>
@@ -20498,53 +20575,53 @@
         <v>82</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>396</v>
+        <v>674</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH151" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI151" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="AK151" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>82</v>
+        <v>649</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>191</v>
+        <v>679</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO151" t="s" s="2">
-        <v>82</v>
+        <v>680</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>713</v>
+        <v>681</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>713</v>
+        <v>681</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
-        <v>82</v>
+        <v>682</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G152" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H152" t="s" s="2">
         <v>82</v>
@@ -20553,18 +20630,20 @@
         <v>82</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>302</v>
+        <v>227</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>714</v>
+        <v>683</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>715</v>
-      </c>
-      <c r="N152" s="2"/>
+        <v>684</v>
+      </c>
+      <c r="N152" t="s" s="2">
+        <v>685</v>
+      </c>
       <c r="O152" s="2"/>
       <c r="P152" t="s" s="2">
         <v>82</v>
@@ -20589,13 +20668,13 @@
         <v>82</v>
       </c>
       <c r="X152" t="s" s="2">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="Y152" t="s" s="2">
-        <v>82</v>
+        <v>686</v>
       </c>
       <c r="Z152" t="s" s="2">
-        <v>82</v>
+        <v>687</v>
       </c>
       <c r="AA152" t="s" s="2">
         <v>82</v>
@@ -20613,13 +20692,13 @@
         <v>82</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>713</v>
+        <v>681</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH152" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI152" t="s" s="2">
         <v>82</v>
@@ -20631,35 +20710,35 @@
         <v>82</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>82</v>
+        <v>688</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>307</v>
+        <v>689</v>
       </c>
       <c r="AN152" t="s" s="2">
-        <v>82</v>
+        <v>690</v>
       </c>
       <c r="AO152" t="s" s="2">
-        <v>716</v>
+        <v>691</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>717</v>
+        <v>692</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>717</v>
+        <v>692</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
-        <v>82</v>
+        <v>682</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G153" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H153" t="s" s="2">
         <v>82</v>
@@ -20668,18 +20747,20 @@
         <v>82</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>105</v>
+        <v>693</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>106</v>
+        <v>694</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N153" s="2"/>
+        <v>684</v>
+      </c>
+      <c r="N153" t="s" s="2">
+        <v>685</v>
+      </c>
       <c r="O153" s="2"/>
       <c r="P153" t="s" s="2">
         <v>82</v>
@@ -20728,46 +20809,46 @@
         <v>82</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>108</v>
+        <v>692</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH153" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI153" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="AK153" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>82</v>
+        <v>688</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>109</v>
+        <v>689</v>
       </c>
       <c r="AN153" t="s" s="2">
-        <v>82</v>
+        <v>690</v>
       </c>
       <c r="AO153" t="s" s="2">
-        <v>82</v>
+        <v>691</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>718</v>
+        <v>695</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>718</v>
+        <v>695</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" t="s" s="2">
@@ -20783,20 +20864,18 @@
         <v>82</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>112</v>
+        <v>386</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>113</v>
+        <v>696</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N154" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>697</v>
+      </c>
+      <c r="N154" s="2"/>
       <c r="O154" s="2"/>
       <c r="P154" t="s" s="2">
         <v>82</v>
@@ -20833,19 +20912,19 @@
         <v>82</v>
       </c>
       <c r="AB154" t="s" s="2">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="AC154" t="s" s="2">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="AD154" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>119</v>
+        <v>695</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>80</v>
@@ -20857,7 +20936,7 @@
         <v>82</v>
       </c>
       <c r="AJ154" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="AK154" t="s" s="2">
         <v>82</v>
@@ -20866,7 +20945,7 @@
         <v>82</v>
       </c>
       <c r="AM154" t="s" s="2">
-        <v>109</v>
+        <v>698</v>
       </c>
       <c r="AN154" t="s" s="2">
         <v>82</v>
@@ -20877,10 +20956,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>719</v>
+        <v>699</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>719</v>
+        <v>699</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -20897,26 +20976,22 @@
         <v>82</v>
       </c>
       <c r="I155" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>168</v>
+        <v>105</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>313</v>
+        <v>106</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N155" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="O155" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N155" s="2"/>
+      <c r="O155" s="2"/>
       <c r="P155" t="s" s="2">
         <v>82</v>
       </c>
@@ -20940,13 +21015,13 @@
         <v>82</v>
       </c>
       <c r="X155" t="s" s="2">
-        <v>229</v>
+        <v>82</v>
       </c>
       <c r="Y155" t="s" s="2">
-        <v>317</v>
+        <v>82</v>
       </c>
       <c r="Z155" t="s" s="2">
-        <v>318</v>
+        <v>82</v>
       </c>
       <c r="AA155" t="s" s="2">
         <v>82</v>
@@ -20964,7 +21039,7 @@
         <v>82</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>319</v>
+        <v>108</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>80</v>
@@ -20976,7 +21051,7 @@
         <v>82</v>
       </c>
       <c r="AJ155" t="s" s="2">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="AK155" t="s" s="2">
         <v>82</v>
@@ -20985,32 +21060,32 @@
         <v>82</v>
       </c>
       <c r="AM155" t="s" s="2">
-        <v>320</v>
+        <v>109</v>
       </c>
       <c r="AN155" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO155" t="s" s="2">
-        <v>191</v>
+        <v>82</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="E156" s="2"/>
       <c r="F156" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G156" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H156" t="s" s="2">
         <v>82</v>
@@ -21019,23 +21094,21 @@
         <v>82</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>226</v>
+        <v>112</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>322</v>
+        <v>113</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>721</v>
+        <v>114</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O156" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="O156" s="2"/>
       <c r="P156" t="s" s="2">
         <v>82</v>
       </c>
@@ -21059,11 +21132,13 @@
         <v>82</v>
       </c>
       <c r="X156" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="Y156" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y156" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z156" t="s" s="2">
-        <v>326</v>
+        <v>82</v>
       </c>
       <c r="AA156" t="s" s="2">
         <v>82</v>
@@ -21081,19 +21156,19 @@
         <v>82</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>327</v>
+        <v>119</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH156" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI156" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ156" t="s" s="2">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="AK156" t="s" s="2">
         <v>82</v>
@@ -21102,69 +21177,69 @@
         <v>82</v>
       </c>
       <c r="AM156" t="s" s="2">
-        <v>320</v>
+        <v>109</v>
       </c>
       <c r="AN156" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO156" t="s" s="2">
-        <v>328</v>
+        <v>82</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>722</v>
+        <v>701</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>722</v>
+        <v>701</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
-        <v>82</v>
+        <v>393</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G157" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H157" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I157" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="J157" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>330</v>
+        <v>394</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>723</v>
+        <v>395</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>332</v>
+        <v>115</v>
       </c>
       <c r="O157" t="s" s="2">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="P157" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q157" s="2"/>
       <c r="R157" t="s" s="2">
-        <v>724</v>
+        <v>82</v>
       </c>
       <c r="S157" t="s" s="2">
         <v>82</v>
       </c>
       <c r="T157" t="s" s="2">
-        <v>334</v>
+        <v>82</v>
       </c>
       <c r="U157" t="s" s="2">
         <v>82</v>
@@ -21200,19 +21275,19 @@
         <v>82</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>335</v>
+        <v>396</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH157" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI157" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ157" t="s" s="2">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="AK157" t="s" s="2">
         <v>82</v>
@@ -21221,25 +21296,25 @@
         <v>82</v>
       </c>
       <c r="AM157" t="s" s="2">
-        <v>336</v>
+        <v>191</v>
       </c>
       <c r="AN157" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO157" t="s" s="2">
-        <v>337</v>
+        <v>82</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>725</v>
+        <v>702</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>725</v>
+        <v>702</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
-        <v>82</v>
+        <v>703</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" t="s" s="2">
@@ -21258,16 +21333,16 @@
         <v>92</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>105</v>
+        <v>704</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>339</v>
+        <v>705</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>340</v>
+        <v>706</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>341</v>
+        <v>685</v>
       </c>
       <c r="O158" s="2"/>
       <c r="P158" t="s" s="2">
@@ -21281,7 +21356,7 @@
         <v>82</v>
       </c>
       <c r="T158" t="s" s="2">
-        <v>342</v>
+        <v>82</v>
       </c>
       <c r="U158" t="s" s="2">
         <v>82</v>
@@ -21317,10 +21392,10 @@
         <v>82</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>343</v>
+        <v>702</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH158" t="s" s="2">
         <v>91</v>
@@ -21335,24 +21410,24 @@
         <v>82</v>
       </c>
       <c r="AL158" t="s" s="2">
-        <v>82</v>
+        <v>707</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>344</v>
+        <v>708</v>
       </c>
       <c r="AN158" t="s" s="2">
-        <v>82</v>
+        <v>690</v>
       </c>
       <c r="AO158" t="s" s="2">
-        <v>345</v>
+        <v>709</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21372,16 +21447,16 @@
         <v>82</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>347</v>
+        <v>227</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>348</v>
+        <v>711</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>349</v>
+        <v>712</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
@@ -21408,13 +21483,13 @@
         <v>82</v>
       </c>
       <c r="X159" t="s" s="2">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="Y159" t="s" s="2">
-        <v>82</v>
+        <v>713</v>
       </c>
       <c r="Z159" t="s" s="2">
-        <v>82</v>
+        <v>714</v>
       </c>
       <c r="AA159" t="s" s="2">
         <v>82</v>
@@ -21432,7 +21507,7 @@
         <v>82</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>350</v>
+        <v>710</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>80</v>
@@ -21453,21 +21528,21 @@
         <v>82</v>
       </c>
       <c r="AM159" t="s" s="2">
-        <v>351</v>
+        <v>109</v>
       </c>
       <c r="AN159" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO159" t="s" s="2">
-        <v>352</v>
+        <v>82</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -21487,20 +21562,18 @@
         <v>82</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>354</v>
+        <v>716</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>355</v>
+        <v>717</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N160" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>718</v>
+      </c>
+      <c r="N160" s="2"/>
       <c r="O160" s="2"/>
       <c r="P160" t="s" s="2">
         <v>82</v>
@@ -21549,7 +21622,7 @@
         <v>82</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>358</v>
+        <v>715</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>80</v>
@@ -21570,21 +21643,21 @@
         <v>82</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>359</v>
+        <v>719</v>
       </c>
       <c r="AN160" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO160" t="s" s="2">
-        <v>360</v>
+        <v>82</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -21607,15 +21680,17 @@
         <v>82</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>731</v>
-      </c>
-      <c r="N161" s="2"/>
+        <v>723</v>
+      </c>
+      <c r="N161" t="s" s="2">
+        <v>724</v>
+      </c>
       <c r="O161" s="2"/>
       <c r="P161" t="s" s="2">
         <v>82</v>
@@ -21664,13 +21739,13 @@
         <v>82</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH161" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI161" t="s" s="2">
         <v>82</v>
@@ -21685,7 +21760,7 @@
         <v>82</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="AN161" t="s" s="2">
         <v>82</v>
@@ -21696,10 +21771,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -21722,15 +21797,17 @@
         <v>82</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>226</v>
+        <v>386</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>735</v>
-      </c>
-      <c r="N162" s="2"/>
+        <v>728</v>
+      </c>
+      <c r="N162" t="s" s="2">
+        <v>729</v>
+      </c>
       <c r="O162" s="2"/>
       <c r="P162" t="s" s="2">
         <v>82</v>
@@ -21755,13 +21832,13 @@
         <v>82</v>
       </c>
       <c r="X162" t="s" s="2">
-        <v>172</v>
+        <v>82</v>
       </c>
       <c r="Y162" t="s" s="2">
-        <v>736</v>
+        <v>82</v>
       </c>
       <c r="Z162" t="s" s="2">
-        <v>737</v>
+        <v>82</v>
       </c>
       <c r="AA162" t="s" s="2">
         <v>82</v>
@@ -21779,7 +21856,7 @@
         <v>82</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>80</v>
@@ -21800,21 +21877,21 @@
         <v>82</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="AN162" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO162" t="s" s="2">
-        <v>739</v>
+        <v>82</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -21837,13 +21914,13 @@
         <v>82</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>226</v>
+        <v>105</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>741</v>
+        <v>106</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>742</v>
+        <v>107</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" s="2"/>
@@ -21870,13 +21947,13 @@
         <v>82</v>
       </c>
       <c r="X163" t="s" s="2">
-        <v>158</v>
+        <v>82</v>
       </c>
       <c r="Y163" t="s" s="2">
-        <v>743</v>
+        <v>82</v>
       </c>
       <c r="Z163" t="s" s="2">
-        <v>744</v>
+        <v>82</v>
       </c>
       <c r="AA163" t="s" s="2">
         <v>82</v>
@@ -21894,7 +21971,7 @@
         <v>82</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>740</v>
+        <v>108</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>80</v>
@@ -21906,7 +21983,7 @@
         <v>82</v>
       </c>
       <c r="AJ163" t="s" s="2">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="AK163" t="s" s="2">
         <v>82</v>
@@ -21921,19 +21998,19 @@
         <v>82</v>
       </c>
       <c r="AO163" t="s" s="2">
-        <v>745</v>
+        <v>82</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>746</v>
+        <v>732</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>746</v>
+        <v>732</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="E164" s="2"/>
       <c r="F164" t="s" s="2">
@@ -21952,20 +22029,18 @@
         <v>82</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>226</v>
+        <v>112</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>747</v>
+        <v>113</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>748</v>
+        <v>114</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>749</v>
-      </c>
-      <c r="O164" t="s" s="2">
-        <v>750</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="O164" s="2"/>
       <c r="P164" t="s" s="2">
         <v>82</v>
       </c>
@@ -21989,13 +22064,13 @@
         <v>82</v>
       </c>
       <c r="X164" t="s" s="2">
-        <v>158</v>
+        <v>82</v>
       </c>
       <c r="Y164" t="s" s="2">
-        <v>751</v>
+        <v>82</v>
       </c>
       <c r="Z164" t="s" s="2">
-        <v>752</v>
+        <v>82</v>
       </c>
       <c r="AA164" t="s" s="2">
         <v>82</v>
@@ -22013,7 +22088,7 @@
         <v>82</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>746</v>
+        <v>119</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>80</v>
@@ -22025,7 +22100,7 @@
         <v>82</v>
       </c>
       <c r="AJ164" t="s" s="2">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="AK164" t="s" s="2">
         <v>82</v>
@@ -22034,25 +22109,25 @@
         <v>82</v>
       </c>
       <c r="AM164" t="s" s="2">
-        <v>753</v>
+        <v>109</v>
       </c>
       <c r="AN164" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO164" t="s" s="2">
-        <v>754</v>
+        <v>82</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>755</v>
+        <v>733</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>755</v>
+        <v>733</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
-        <v>82</v>
+        <v>393</v>
       </c>
       <c r="E165" s="2"/>
       <c r="F165" t="s" s="2">
@@ -22065,22 +22140,26 @@
         <v>82</v>
       </c>
       <c r="I165" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>226</v>
+        <v>112</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>756</v>
+        <v>394</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>757</v>
-      </c>
-      <c r="N165" s="2"/>
-      <c r="O165" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="N165" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="O165" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="P165" t="s" s="2">
         <v>82</v>
       </c>
@@ -22104,13 +22183,13 @@
         <v>82</v>
       </c>
       <c r="X165" t="s" s="2">
-        <v>172</v>
+        <v>82</v>
       </c>
       <c r="Y165" t="s" s="2">
-        <v>758</v>
+        <v>82</v>
       </c>
       <c r="Z165" t="s" s="2">
-        <v>759</v>
+        <v>82</v>
       </c>
       <c r="AA165" t="s" s="2">
         <v>82</v>
@@ -22128,7 +22207,7 @@
         <v>82</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>755</v>
+        <v>396</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>80</v>
@@ -22140,7 +22219,7 @@
         <v>82</v>
       </c>
       <c r="AJ165" t="s" s="2">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="AK165" t="s" s="2">
         <v>82</v>
@@ -22149,21 +22228,21 @@
         <v>82</v>
       </c>
       <c r="AM165" t="s" s="2">
-        <v>760</v>
+        <v>191</v>
       </c>
       <c r="AN165" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO165" t="s" s="2">
-        <v>761</v>
+        <v>82</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>762</v>
+        <v>734</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>762</v>
+        <v>734</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -22174,7 +22253,7 @@
         <v>80</v>
       </c>
       <c r="G166" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H166" t="s" s="2">
         <v>82</v>
@@ -22186,13 +22265,13 @@
         <v>82</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>226</v>
+        <v>302</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>763</v>
+        <v>735</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>764</v>
+        <v>736</v>
       </c>
       <c r="N166" s="2"/>
       <c r="O166" s="2"/>
@@ -22219,13 +22298,13 @@
         <v>82</v>
       </c>
       <c r="X166" t="s" s="2">
-        <v>172</v>
+        <v>82</v>
       </c>
       <c r="Y166" t="s" s="2">
-        <v>765</v>
+        <v>82</v>
       </c>
       <c r="Z166" t="s" s="2">
-        <v>766</v>
+        <v>82</v>
       </c>
       <c r="AA166" t="s" s="2">
         <v>82</v>
@@ -22243,13 +22322,13 @@
         <v>82</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>762</v>
+        <v>734</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH166" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI166" t="s" s="2">
         <v>82</v>
@@ -22264,21 +22343,21 @@
         <v>82</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>767</v>
+        <v>307</v>
       </c>
       <c r="AN166" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO166" t="s" s="2">
-        <v>768</v>
+        <v>737</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>769</v>
+        <v>738</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>769</v>
+        <v>738</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -22301,13 +22380,13 @@
         <v>82</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>729</v>
+        <v>105</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>770</v>
+        <v>106</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>771</v>
+        <v>107</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -22358,7 +22437,7 @@
         <v>82</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>769</v>
+        <v>108</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>80</v>
@@ -22370,7 +22449,7 @@
         <v>82</v>
       </c>
       <c r="AJ167" t="s" s="2">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="AK167" t="s" s="2">
         <v>82</v>
@@ -22379,32 +22458,32 @@
         <v>82</v>
       </c>
       <c r="AM167" t="s" s="2">
-        <v>772</v>
+        <v>109</v>
       </c>
       <c r="AN167" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO167" t="s" s="2">
-        <v>773</v>
+        <v>82</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>774</v>
+        <v>739</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>774</v>
+        <v>739</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="E168" s="2"/>
       <c r="F168" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G168" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H168" t="s" s="2">
         <v>82</v>
@@ -22416,15 +22495,17 @@
         <v>82</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>226</v>
+        <v>112</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>775</v>
+        <v>113</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>776</v>
-      </c>
-      <c r="N168" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="N168" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="O168" s="2"/>
       <c r="P168" t="s" s="2">
         <v>82</v>
@@ -22449,41 +22530,43 @@
         <v>82</v>
       </c>
       <c r="X168" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="Y168" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y168" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z168" t="s" s="2">
-        <v>777</v>
+        <v>82</v>
       </c>
       <c r="AA168" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB168" t="s" s="2">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="AC168" t="s" s="2">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="AD168" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>774</v>
+        <v>119</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH168" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI168" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ168" t="s" s="2">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="AK168" t="s" s="2">
         <v>82</v>
@@ -22492,21 +22575,21 @@
         <v>82</v>
       </c>
       <c r="AM168" t="s" s="2">
-        <v>778</v>
+        <v>109</v>
       </c>
       <c r="AN168" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO168" t="s" s="2">
-        <v>779</v>
+        <v>82</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>780</v>
+        <v>740</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>780</v>
+        <v>740</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -22523,24 +22606,26 @@
         <v>82</v>
       </c>
       <c r="I169" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>386</v>
+        <v>168</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>781</v>
+        <v>313</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>782</v>
+        <v>314</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>783</v>
-      </c>
-      <c r="O169" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="O169" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="P169" t="s" s="2">
         <v>82</v>
       </c>
@@ -22564,13 +22649,13 @@
         <v>82</v>
       </c>
       <c r="X169" t="s" s="2">
-        <v>82</v>
+        <v>230</v>
       </c>
       <c r="Y169" t="s" s="2">
-        <v>82</v>
+        <v>317</v>
       </c>
       <c r="Z169" t="s" s="2">
-        <v>82</v>
+        <v>318</v>
       </c>
       <c r="AA169" t="s" s="2">
         <v>82</v>
@@ -22588,13 +22673,13 @@
         <v>82</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>780</v>
+        <v>319</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH169" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI169" t="s" s="2">
         <v>82</v>
@@ -22603,27 +22688,27 @@
         <v>103</v>
       </c>
       <c r="AK169" t="s" s="2">
-        <v>784</v>
+        <v>82</v>
       </c>
       <c r="AL169" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM169" t="s" s="2">
-        <v>785</v>
+        <v>320</v>
       </c>
       <c r="AN169" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO169" t="s" s="2">
-        <v>82</v>
+        <v>191</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>786</v>
+        <v>741</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>786</v>
+        <v>741</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -22631,7 +22716,7 @@
       </c>
       <c r="E170" s="2"/>
       <c r="F170" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G170" t="s" s="2">
         <v>91</v>
@@ -22643,19 +22728,23 @@
         <v>82</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>105</v>
+        <v>227</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>106</v>
+        <v>322</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N170" s="2"/>
-      <c r="O170" s="2"/>
+        <v>742</v>
+      </c>
+      <c r="N170" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="O170" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="P170" t="s" s="2">
         <v>82</v>
       </c>
@@ -22679,13 +22768,11 @@
         <v>82</v>
       </c>
       <c r="X170" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y170" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="Y170" s="2"/>
       <c r="Z170" t="s" s="2">
-        <v>82</v>
+        <v>326</v>
       </c>
       <c r="AA170" t="s" s="2">
         <v>82</v>
@@ -22703,7 +22790,7 @@
         <v>82</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>108</v>
+        <v>327</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>80</v>
@@ -22715,7 +22802,7 @@
         <v>82</v>
       </c>
       <c r="AJ170" t="s" s="2">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="AK170" t="s" s="2">
         <v>82</v>
@@ -22724,32 +22811,32 @@
         <v>82</v>
       </c>
       <c r="AM170" t="s" s="2">
-        <v>109</v>
+        <v>320</v>
       </c>
       <c r="AN170" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO170" t="s" s="2">
-        <v>82</v>
+        <v>328</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>787</v>
+        <v>743</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>787</v>
+        <v>743</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="E171" s="2"/>
       <c r="F171" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G171" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H171" t="s" s="2">
         <v>82</v>
@@ -22758,33 +22845,35 @@
         <v>82</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>113</v>
+        <v>330</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>114</v>
+        <v>744</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="O171" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="O171" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="P171" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q171" s="2"/>
       <c r="R171" t="s" s="2">
-        <v>82</v>
+        <v>745</v>
       </c>
       <c r="S171" t="s" s="2">
         <v>82</v>
       </c>
       <c r="T171" t="s" s="2">
-        <v>82</v>
+        <v>334</v>
       </c>
       <c r="U171" t="s" s="2">
         <v>82</v>
@@ -22820,19 +22909,19 @@
         <v>82</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>119</v>
+        <v>335</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH171" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI171" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ171" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="AK171" t="s" s="2">
         <v>82</v>
@@ -22841,57 +22930,55 @@
         <v>82</v>
       </c>
       <c r="AM171" t="s" s="2">
-        <v>109</v>
+        <v>336</v>
       </c>
       <c r="AN171" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO171" t="s" s="2">
-        <v>82</v>
+        <v>337</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>788</v>
+        <v>746</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>788</v>
+        <v>746</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
-        <v>393</v>
+        <v>82</v>
       </c>
       <c r="E172" s="2"/>
       <c r="F172" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G172" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H172" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I172" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="J172" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>394</v>
+        <v>339</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>395</v>
+        <v>340</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="O172" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="O172" s="2"/>
       <c r="P172" t="s" s="2">
         <v>82</v>
       </c>
@@ -22903,7 +22990,7 @@
         <v>82</v>
       </c>
       <c r="T172" t="s" s="2">
-        <v>82</v>
+        <v>342</v>
       </c>
       <c r="U172" t="s" s="2">
         <v>82</v>
@@ -22939,19 +23026,19 @@
         <v>82</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>396</v>
+        <v>343</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH172" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI172" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ172" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="AK172" t="s" s="2">
         <v>82</v>
@@ -22960,21 +23047,21 @@
         <v>82</v>
       </c>
       <c r="AM172" t="s" s="2">
-        <v>191</v>
+        <v>344</v>
       </c>
       <c r="AN172" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO172" t="s" s="2">
-        <v>82</v>
+        <v>345</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>789</v>
+        <v>747</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>789</v>
+        <v>747</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -22982,7 +23069,7 @@
       </c>
       <c r="E173" s="2"/>
       <c r="F173" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G173" t="s" s="2">
         <v>91</v>
@@ -22994,16 +23081,16 @@
         <v>82</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>790</v>
+        <v>347</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>791</v>
+        <v>348</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>792</v>
+        <v>349</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" s="2"/>
@@ -23054,10 +23141,10 @@
         <v>82</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>789</v>
+        <v>350</v>
       </c>
       <c r="AG173" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH173" t="s" s="2">
         <v>91</v>
@@ -23072,24 +23159,24 @@
         <v>82</v>
       </c>
       <c r="AL173" t="s" s="2">
-        <v>793</v>
+        <v>82</v>
       </c>
       <c r="AM173" t="s" s="2">
-        <v>615</v>
+        <v>351</v>
       </c>
       <c r="AN173" t="s" s="2">
-        <v>794</v>
+        <v>82</v>
       </c>
       <c r="AO173" t="s" s="2">
-        <v>795</v>
+        <v>352</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>796</v>
+        <v>748</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>796</v>
+        <v>748</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -23109,19 +23196,19 @@
         <v>82</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>168</v>
+        <v>354</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>797</v>
+        <v>355</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>798</v>
+        <v>356</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>799</v>
+        <v>357</v>
       </c>
       <c r="O174" s="2"/>
       <c r="P174" t="s" s="2">
@@ -23147,13 +23234,13 @@
         <v>82</v>
       </c>
       <c r="X174" t="s" s="2">
-        <v>229</v>
+        <v>82</v>
       </c>
       <c r="Y174" t="s" s="2">
-        <v>800</v>
+        <v>82</v>
       </c>
       <c r="Z174" t="s" s="2">
-        <v>801</v>
+        <v>82</v>
       </c>
       <c r="AA174" t="s" s="2">
         <v>82</v>
@@ -23171,7 +23258,7 @@
         <v>82</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>796</v>
+        <v>358</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>80</v>
@@ -23192,21 +23279,21 @@
         <v>82</v>
       </c>
       <c r="AM174" t="s" s="2">
-        <v>802</v>
+        <v>359</v>
       </c>
       <c r="AN174" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO174" t="s" s="2">
-        <v>82</v>
+        <v>360</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>803</v>
+        <v>749</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>803</v>
+        <v>749</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -23229,17 +23316,15 @@
         <v>82</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>226</v>
+        <v>750</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>804</v>
+        <v>751</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>805</v>
-      </c>
-      <c r="N175" t="s" s="2">
-        <v>806</v>
-      </c>
+        <v>752</v>
+      </c>
+      <c r="N175" s="2"/>
       <c r="O175" s="2"/>
       <c r="P175" t="s" s="2">
         <v>82</v>
@@ -23264,11 +23349,13 @@
         <v>82</v>
       </c>
       <c r="X175" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="Y175" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y175" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z175" t="s" s="2">
-        <v>807</v>
+        <v>82</v>
       </c>
       <c r="AA175" t="s" s="2">
         <v>82</v>
@@ -23286,7 +23373,7 @@
         <v>82</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>803</v>
+        <v>749</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>80</v>
@@ -23307,7 +23394,7 @@
         <v>82</v>
       </c>
       <c r="AM175" t="s" s="2">
-        <v>82</v>
+        <v>753</v>
       </c>
       <c r="AN175" t="s" s="2">
         <v>82</v>
@@ -23318,10 +23405,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>808</v>
+        <v>754</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>808</v>
+        <v>754</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -23344,13 +23431,13 @@
         <v>82</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>347</v>
+        <v>227</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>809</v>
+        <v>755</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>810</v>
+        <v>756</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" s="2"/>
@@ -23377,13 +23464,13 @@
         <v>82</v>
       </c>
       <c r="X176" t="s" s="2">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="Y176" t="s" s="2">
-        <v>82</v>
+        <v>757</v>
       </c>
       <c r="Z176" t="s" s="2">
-        <v>82</v>
+        <v>758</v>
       </c>
       <c r="AA176" t="s" s="2">
         <v>82</v>
@@ -23401,7 +23488,7 @@
         <v>82</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>808</v>
+        <v>754</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>80</v>
@@ -23422,21 +23509,21 @@
         <v>82</v>
       </c>
       <c r="AM176" t="s" s="2">
-        <v>607</v>
+        <v>759</v>
       </c>
       <c r="AN176" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO176" t="s" s="2">
-        <v>82</v>
+        <v>760</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>811</v>
+        <v>761</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>811</v>
+        <v>761</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -23459,13 +23546,13 @@
         <v>82</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>812</v>
+        <v>227</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>813</v>
+        <v>762</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>814</v>
+        <v>763</v>
       </c>
       <c r="N177" s="2"/>
       <c r="O177" s="2"/>
@@ -23492,13 +23579,13 @@
         <v>82</v>
       </c>
       <c r="X177" t="s" s="2">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="Y177" t="s" s="2">
-        <v>82</v>
+        <v>764</v>
       </c>
       <c r="Z177" t="s" s="2">
-        <v>82</v>
+        <v>765</v>
       </c>
       <c r="AA177" t="s" s="2">
         <v>82</v>
@@ -23516,7 +23603,7 @@
         <v>82</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>811</v>
+        <v>761</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>80</v>
@@ -23531,27 +23618,27 @@
         <v>103</v>
       </c>
       <c r="AK177" t="s" s="2">
-        <v>815</v>
+        <v>82</v>
       </c>
       <c r="AL177" t="s" s="2">
-        <v>614</v>
+        <v>82</v>
       </c>
       <c r="AM177" t="s" s="2">
-        <v>816</v>
+        <v>109</v>
       </c>
       <c r="AN177" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO177" t="s" s="2">
-        <v>817</v>
+        <v>766</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>818</v>
+        <v>767</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>818</v>
+        <v>767</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -23562,7 +23649,7 @@
         <v>80</v>
       </c>
       <c r="G178" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H178" t="s" s="2">
         <v>82</v>
@@ -23574,18 +23661,20 @@
         <v>82</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>819</v>
+        <v>227</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>820</v>
+        <v>768</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>821</v>
+        <v>769</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>822</v>
-      </c>
-      <c r="O178" s="2"/>
+        <v>770</v>
+      </c>
+      <c r="O178" t="s" s="2">
+        <v>771</v>
+      </c>
       <c r="P178" t="s" s="2">
         <v>82</v>
       </c>
@@ -23609,13 +23698,13 @@
         <v>82</v>
       </c>
       <c r="X178" t="s" s="2">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="Y178" t="s" s="2">
-        <v>82</v>
+        <v>772</v>
       </c>
       <c r="Z178" t="s" s="2">
-        <v>82</v>
+        <v>773</v>
       </c>
       <c r="AA178" t="s" s="2">
         <v>82</v>
@@ -23633,13 +23722,13 @@
         <v>82</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>818</v>
+        <v>767</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH178" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI178" t="s" s="2">
         <v>82</v>
@@ -23648,18 +23737,1638 @@
         <v>103</v>
       </c>
       <c r="AK178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM178" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="AN178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO178" t="s" s="2">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s" s="2">
+        <v>776</v>
+      </c>
+      <c r="B179" t="s" s="2">
+        <v>776</v>
+      </c>
+      <c r="C179" s="2"/>
+      <c r="D179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E179" s="2"/>
+      <c r="F179" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G179" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K179" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L179" t="s" s="2">
+        <v>777</v>
+      </c>
+      <c r="M179" t="s" s="2">
+        <v>778</v>
+      </c>
+      <c r="N179" s="2"/>
+      <c r="O179" s="2"/>
+      <c r="P179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q179" s="2"/>
+      <c r="R179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X179" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="Y179" t="s" s="2">
+        <v>779</v>
+      </c>
+      <c r="Z179" t="s" s="2">
+        <v>780</v>
+      </c>
+      <c r="AA179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF179" t="s" s="2">
+        <v>776</v>
+      </c>
+      <c r="AG179" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH179" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ179" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM179" t="s" s="2">
+        <v>781</v>
+      </c>
+      <c r="AN179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO179" t="s" s="2">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s" s="2">
+        <v>783</v>
+      </c>
+      <c r="B180" t="s" s="2">
+        <v>783</v>
+      </c>
+      <c r="C180" s="2"/>
+      <c r="D180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E180" s="2"/>
+      <c r="F180" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G180" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K180" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L180" t="s" s="2">
+        <v>784</v>
+      </c>
+      <c r="M180" t="s" s="2">
+        <v>785</v>
+      </c>
+      <c r="N180" s="2"/>
+      <c r="O180" s="2"/>
+      <c r="P180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q180" s="2"/>
+      <c r="R180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X180" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="Y180" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="Z180" t="s" s="2">
+        <v>787</v>
+      </c>
+      <c r="AA180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF180" t="s" s="2">
+        <v>783</v>
+      </c>
+      <c r="AG180" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH180" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ180" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM180" t="s" s="2">
+        <v>788</v>
+      </c>
+      <c r="AN180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO180" t="s" s="2">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s" s="2">
+        <v>790</v>
+      </c>
+      <c r="B181" t="s" s="2">
+        <v>790</v>
+      </c>
+      <c r="C181" s="2"/>
+      <c r="D181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E181" s="2"/>
+      <c r="F181" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G181" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K181" t="s" s="2">
+        <v>750</v>
+      </c>
+      <c r="L181" t="s" s="2">
+        <v>791</v>
+      </c>
+      <c r="M181" t="s" s="2">
+        <v>792</v>
+      </c>
+      <c r="N181" s="2"/>
+      <c r="O181" s="2"/>
+      <c r="P181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q181" s="2"/>
+      <c r="R181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF181" t="s" s="2">
+        <v>790</v>
+      </c>
+      <c r="AG181" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH181" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ181" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM181" t="s" s="2">
+        <v>793</v>
+      </c>
+      <c r="AN181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO181" t="s" s="2">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s" s="2">
+        <v>795</v>
+      </c>
+      <c r="B182" t="s" s="2">
+        <v>795</v>
+      </c>
+      <c r="C182" s="2"/>
+      <c r="D182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E182" s="2"/>
+      <c r="F182" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G182" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K182" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L182" t="s" s="2">
+        <v>796</v>
+      </c>
+      <c r="M182" t="s" s="2">
+        <v>797</v>
+      </c>
+      <c r="N182" s="2"/>
+      <c r="O182" s="2"/>
+      <c r="P182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q182" s="2"/>
+      <c r="R182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X182" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="Y182" s="2"/>
+      <c r="Z182" t="s" s="2">
+        <v>798</v>
+      </c>
+      <c r="AA182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF182" t="s" s="2">
+        <v>795</v>
+      </c>
+      <c r="AG182" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH182" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ182" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM182" t="s" s="2">
+        <v>799</v>
+      </c>
+      <c r="AN182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO182" t="s" s="2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s" s="2">
+        <v>801</v>
+      </c>
+      <c r="B183" t="s" s="2">
+        <v>801</v>
+      </c>
+      <c r="C183" s="2"/>
+      <c r="D183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E183" s="2"/>
+      <c r="F183" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G183" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K183" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L183" t="s" s="2">
+        <v>802</v>
+      </c>
+      <c r="M183" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="N183" t="s" s="2">
+        <v>804</v>
+      </c>
+      <c r="O183" s="2"/>
+      <c r="P183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q183" s="2"/>
+      <c r="R183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF183" t="s" s="2">
+        <v>801</v>
+      </c>
+      <c r="AG183" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH183" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ183" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK183" t="s" s="2">
+        <v>805</v>
+      </c>
+      <c r="AL183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM183" t="s" s="2">
+        <v>806</v>
+      </c>
+      <c r="AN183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO183" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s" s="2">
+        <v>807</v>
+      </c>
+      <c r="B184" t="s" s="2">
+        <v>807</v>
+      </c>
+      <c r="C184" s="2"/>
+      <c r="D184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E184" s="2"/>
+      <c r="F184" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G184" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K184" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L184" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="M184" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="N184" s="2"/>
+      <c r="O184" s="2"/>
+      <c r="P184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q184" s="2"/>
+      <c r="R184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF184" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AG184" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH184" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM184" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AN184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO184" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s" s="2">
+        <v>808</v>
+      </c>
+      <c r="B185" t="s" s="2">
+        <v>808</v>
+      </c>
+      <c r="C185" s="2"/>
+      <c r="D185" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="E185" s="2"/>
+      <c r="F185" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G185" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K185" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L185" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M185" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="N185" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="O185" s="2"/>
+      <c r="P185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q185" s="2"/>
+      <c r="R185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF185" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG185" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH185" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ185" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AK185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM185" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AN185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO185" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s" s="2">
+        <v>809</v>
+      </c>
+      <c r="B186" t="s" s="2">
+        <v>809</v>
+      </c>
+      <c r="C186" s="2"/>
+      <c r="D186" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="E186" s="2"/>
+      <c r="F186" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G186" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I186" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J186" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K186" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L186" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M186" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="N186" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="O186" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="P186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q186" s="2"/>
+      <c r="R186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF186" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AG186" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH186" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ186" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AK186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM186" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AN186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO186" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s" s="2">
+        <v>810</v>
+      </c>
+      <c r="B187" t="s" s="2">
+        <v>810</v>
+      </c>
+      <c r="C187" s="2"/>
+      <c r="D187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E187" s="2"/>
+      <c r="F187" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G187" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K187" t="s" s="2">
+        <v>811</v>
+      </c>
+      <c r="L187" t="s" s="2">
+        <v>812</v>
+      </c>
+      <c r="M187" t="s" s="2">
+        <v>813</v>
+      </c>
+      <c r="N187" s="2"/>
+      <c r="O187" s="2"/>
+      <c r="P187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q187" s="2"/>
+      <c r="R187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF187" t="s" s="2">
+        <v>810</v>
+      </c>
+      <c r="AG187" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH187" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ187" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL187" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="AM187" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AN187" t="s" s="2">
+        <v>815</v>
+      </c>
+      <c r="AO187" t="s" s="2">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s" s="2">
+        <v>817</v>
+      </c>
+      <c r="B188" t="s" s="2">
+        <v>817</v>
+      </c>
+      <c r="C188" s="2"/>
+      <c r="D188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E188" s="2"/>
+      <c r="F188" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G188" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K188" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L188" t="s" s="2">
+        <v>818</v>
+      </c>
+      <c r="M188" t="s" s="2">
+        <v>819</v>
+      </c>
+      <c r="N188" t="s" s="2">
+        <v>820</v>
+      </c>
+      <c r="O188" s="2"/>
+      <c r="P188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q188" s="2"/>
+      <c r="R188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X188" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="Y188" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="Z188" t="s" s="2">
+        <v>822</v>
+      </c>
+      <c r="AA188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF188" t="s" s="2">
+        <v>817</v>
+      </c>
+      <c r="AG188" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH188" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ188" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM188" t="s" s="2">
         <v>823</v>
       </c>
-      <c r="AL178" t="s" s="2">
+      <c r="AN188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO188" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s" s="2">
         <v>824</v>
       </c>
-      <c r="AM178" t="s" s="2">
+      <c r="B189" t="s" s="2">
+        <v>824</v>
+      </c>
+      <c r="C189" s="2"/>
+      <c r="D189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E189" s="2"/>
+      <c r="F189" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G189" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K189" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L189" t="s" s="2">
         <v>825</v>
       </c>
-      <c r="AN178" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO178" t="s" s="2">
+      <c r="M189" t="s" s="2">
+        <v>826</v>
+      </c>
+      <c r="N189" t="s" s="2">
+        <v>827</v>
+      </c>
+      <c r="O189" s="2"/>
+      <c r="P189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q189" s="2"/>
+      <c r="R189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X189" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="Y189" s="2"/>
+      <c r="Z189" t="s" s="2">
+        <v>828</v>
+      </c>
+      <c r="AA189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF189" t="s" s="2">
+        <v>824</v>
+      </c>
+      <c r="AG189" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH189" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ189" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO189" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s" s="2">
+        <v>829</v>
+      </c>
+      <c r="B190" t="s" s="2">
+        <v>829</v>
+      </c>
+      <c r="C190" s="2"/>
+      <c r="D190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E190" s="2"/>
+      <c r="F190" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G190" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K190" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L190" t="s" s="2">
+        <v>830</v>
+      </c>
+      <c r="M190" t="s" s="2">
+        <v>831</v>
+      </c>
+      <c r="N190" s="2"/>
+      <c r="O190" s="2"/>
+      <c r="P190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q190" s="2"/>
+      <c r="R190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF190" t="s" s="2">
+        <v>829</v>
+      </c>
+      <c r="AG190" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH190" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ190" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM190" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="AN190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO190" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s" s="2">
+        <v>832</v>
+      </c>
+      <c r="B191" t="s" s="2">
+        <v>832</v>
+      </c>
+      <c r="C191" s="2"/>
+      <c r="D191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E191" s="2"/>
+      <c r="F191" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G191" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K191" t="s" s="2">
+        <v>833</v>
+      </c>
+      <c r="L191" t="s" s="2">
+        <v>834</v>
+      </c>
+      <c r="M191" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="N191" s="2"/>
+      <c r="O191" s="2"/>
+      <c r="P191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q191" s="2"/>
+      <c r="R191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF191" t="s" s="2">
+        <v>832</v>
+      </c>
+      <c r="AG191" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH191" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ191" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK191" t="s" s="2">
+        <v>836</v>
+      </c>
+      <c r="AL191" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="AM191" t="s" s="2">
+        <v>837</v>
+      </c>
+      <c r="AN191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO191" t="s" s="2">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s" s="2">
+        <v>839</v>
+      </c>
+      <c r="B192" t="s" s="2">
+        <v>839</v>
+      </c>
+      <c r="C192" s="2"/>
+      <c r="D192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E192" s="2"/>
+      <c r="F192" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G192" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K192" t="s" s="2">
+        <v>840</v>
+      </c>
+      <c r="L192" t="s" s="2">
+        <v>841</v>
+      </c>
+      <c r="M192" t="s" s="2">
+        <v>842</v>
+      </c>
+      <c r="N192" t="s" s="2">
+        <v>843</v>
+      </c>
+      <c r="O192" s="2"/>
+      <c r="P192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q192" s="2"/>
+      <c r="R192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF192" t="s" s="2">
+        <v>839</v>
+      </c>
+      <c r="AG192" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH192" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ192" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK192" t="s" s="2">
+        <v>844</v>
+      </c>
+      <c r="AL192" t="s" s="2">
+        <v>845</v>
+      </c>
+      <c r="AM192" t="s" s="2">
+        <v>846</v>
+      </c>
+      <c r="AN192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO192" t="s" s="2">
         <v>82</v>
       </c>
     </row>

--- a/362-rc---maj-des-capability-statements--lot-1b/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/362-rc---maj-des-capability-statements--lot-1b/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T12:22:03+00:00</t>
+    <t>2025-10-21T07:57:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/362-rc---maj-des-capability-statements--lot-1b/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/362-rc---maj-des-capability-statements--lot-1b/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T07:57:56+00:00</t>
+    <t>2025-10-23T07:47:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
